--- a/raw_files/colonization.xlsx
+++ b/raw_files/colonization.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="13">
   <si>
     <t>legume.control</t>
   </si>
@@ -33,55 +33,19 @@
     <t>t5</t>
   </si>
   <si>
-    <t>7.5</t>
-  </si>
-  <si>
     <t>compost</t>
-  </si>
-  <si>
-    <t>9.5</t>
   </si>
   <si>
     <t>12.5</t>
   </si>
   <si>
-    <t>25.5</t>
-  </si>
-  <si>
     <t>mo.pellet</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>11.5</t>
   </si>
   <si>
     <t>cow.manure</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>chicken.manure</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
   </si>
   <si>
     <t>Control.amf</t>
@@ -90,34 +54,7 @@
     <t>Control</t>
   </si>
   <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>t4</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>39.5</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>38.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
   </si>
   <si>
     <t>colonization</t>
@@ -162,9 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -447,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,21 +400,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -482,21 +422,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -504,54 +444,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>38.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
@@ -559,10 +499,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>36</v>
@@ -570,21 +510,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -592,32 +532,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>20</v>
@@ -625,51 +565,51 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -678,513 +618,579 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="D23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="D24">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(C31:C33)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>AVERAGE(C34:C36)</f>
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="D37">
+        <f>AVERAGE(C37:C39)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>AVERAGE(C40:C42)</f>
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>AVERAGE(C43:C45)</f>
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>AVERAGE(C46:C48)</f>
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D49">
+        <f>AVERAGE(C49:C51)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="D52">
+        <f>AVERAGE(C52:C54)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f>AVERAGE(C55:C57)</f>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f>AVERAGE(C58:C60)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D61">
+        <f>AVERAGE(C61:C63)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f>AVERAGE(C64:C66)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -1205,8 +1211,12 @@
       <c r="C68" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f>AVERAGE(C67:C68)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1216,8 +1226,11 @@
       <c r="C69" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -1225,6 +1238,9 @@
         <v>0</v>
       </c>
       <c r="C70" s="1">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1">
         <v>22</v>
       </c>
     </row>
